--- a/sw/Bedinino_timedbatteryswitcher_4x20LCD/Sensors.xlsx
+++ b/sw/Bedinino_timedbatteryswitcher_4x20LCD/Sensors.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>185mV/A</t>
-  </si>
-  <si>
     <t>cuentas</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>mA</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>mV/A</t>
   </si>
 </sst>
 </file>
@@ -256,11 +256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="32264576"/>
-        <c:axId val="32258688"/>
+        <c:axId val="147750912"/>
+        <c:axId val="147752448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32264576"/>
+        <c:axId val="147750912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,12 +270,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32258688"/>
+        <c:crossAx val="147752448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32258688"/>
+        <c:axId val="147752448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,7 +286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32264576"/>
+        <c:crossAx val="147750912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -633,7 +633,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +645,10 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -659,14 +659,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>C2/B2</f>
         <v>4.8828125E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -674,23 +674,24 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -702,7 +703,7 @@
         <v>-5000</v>
       </c>
       <c r="D7">
-        <f>B7/$E$2</f>
+        <f t="shared" ref="D7:D17" si="0">B7/$E$2</f>
         <v>322.55999999999995</v>
       </c>
     </row>
@@ -715,7 +716,7 @@
         <v>-4000</v>
       </c>
       <c r="D8">
-        <f>B8/$E$2</f>
+        <f t="shared" si="0"/>
         <v>360.44799999999998</v>
       </c>
     </row>
@@ -728,7 +729,7 @@
         <v>-3000</v>
       </c>
       <c r="D9">
-        <f>B9/$E$2</f>
+        <f t="shared" si="0"/>
         <v>398.33599999999996</v>
       </c>
     </row>
@@ -741,7 +742,7 @@
         <v>-2000</v>
       </c>
       <c r="D10">
-        <f>B10/$E$2</f>
+        <f t="shared" si="0"/>
         <v>436.22399999999999</v>
       </c>
     </row>
@@ -754,7 +755,7 @@
         <v>-1000</v>
       </c>
       <c r="D11">
-        <f>B11/$E$2</f>
+        <f t="shared" si="0"/>
         <v>474.11199999999997</v>
       </c>
     </row>
@@ -766,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f>B12/$E$2</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
@@ -779,7 +780,7 @@
         <v>1000</v>
       </c>
       <c r="D13">
-        <f>B13/$E$2</f>
+        <f t="shared" si="0"/>
         <v>549.88800000000003</v>
       </c>
     </row>
@@ -792,7 +793,7 @@
         <v>2000</v>
       </c>
       <c r="D14">
-        <f>B14/$E$2</f>
+        <f t="shared" si="0"/>
         <v>587.77600000000007</v>
       </c>
     </row>
@@ -805,7 +806,7 @@
         <v>3000</v>
       </c>
       <c r="D15">
-        <f>B15/$E$2</f>
+        <f t="shared" si="0"/>
         <v>625.66399999999999</v>
       </c>
     </row>
@@ -818,7 +819,7 @@
         <v>4000</v>
       </c>
       <c r="D16">
-        <f>B16/$E$2</f>
+        <f t="shared" si="0"/>
         <v>663.55200000000002</v>
       </c>
     </row>
@@ -831,7 +832,7 @@
         <v>5000</v>
       </c>
       <c r="D17">
-        <f>B17/$E$2</f>
+        <f t="shared" si="0"/>
         <v>701.44</v>
       </c>
     </row>
